--- a/Resources/Data/testdata.xlsx
+++ b/Resources/Data/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PycharmProjects\RobotFramework\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181E1EFE-19F9-442C-AC88-0D9F694D2D5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B27FCC-43E5-4CE6-B14E-618E5ECA3668}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>name</t>
   </si>
@@ -99,12 +99,6 @@
     <t>Single file selected: 107_S2058_110_0406.pdf, Size: 119649 bytes, Type: application/pdf</t>
   </si>
   <si>
-    <t>Multiple files selected:</t>
-  </si>
-  <si>
-    <t>107_S2058_110_0406.pdf, Size: 119649 bytes, Type: application/pdf</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -112,6 +106,10 @@
   </si>
   <si>
     <t>msg2</t>
+  </si>
+  <si>
+    <t>Multiple files selected:
+107_S2058_110_0406.pdf, Size: 119649 bytes, Type: application/pdf</t>
   </si>
 </sst>
 </file>
@@ -156,10 +154,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -441,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +479,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -508,10 +509,10 @@
         <v>22</v>
       </c>
       <c r="O1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -525,7 +526,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -554,13 +555,8 @@
       <c r="N2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O3" t="s">
-        <v>25</v>
+      <c r="O2" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
